--- a/va_facility_data_2025-02-20/Hidden River VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hidden%20River%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hidden River VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hidden%20River%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rde0a79cfa4034dcd9060504f29f9faaa"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1b1c2319c5e04c1e82e4ca1fce581aac"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R687b122cd09d45db9b10a910141339ad"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R00352d18e4684dc1a3390a17fba0a007"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfbf5a91ffe7b42108c1cd411fc2f2955"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R98093fc393124b24857e259d38086048"/>
   </x:sheets>
 </x:workbook>
 </file>
